--- a/AVGO.xlsx
+++ b/AVGO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kipp\Documents\GitHub\Financial-Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0AD1770-A098-4554-872F-391661953926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA98643A-8C94-4A6B-A974-400B544846DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{CD9BD821-AB0F-D54C-A355-45DF6A10BD02}"/>
+    <workbookView xWindow="8490" yWindow="1275" windowWidth="19515" windowHeight="14445" activeTab="1" xr2:uid="{CD9BD821-AB0F-D54C-A355-45DF6A10BD02}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -365,7 +365,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -410,6 +410,29 @@
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="186"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="186"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="186"/>
     </font>
   </fonts>
   <fills count="2">
@@ -513,15 +536,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -534,6 +554,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -556,16 +584,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>828260</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>12682</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>98932</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>828261</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>12683</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>172555</xdr:rowOff>
+      <xdr:rowOff>64098</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -580,8 +608,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10905434" y="98932"/>
-          <a:ext cx="1" cy="11082590"/>
+          <a:off x="11811776" y="0"/>
+          <a:ext cx="1" cy="8904489"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -927,7 +955,7 @@
   <dimension ref="B2:L24"/>
   <sheetViews>
     <sheetView zoomScale="138" zoomScaleNormal="138" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -944,8 +972,8 @@
       <c r="H3" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="6">
-        <v>241.75</v>
+      <c r="I3" s="4">
+        <v>214</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -984,7 +1012,7 @@
       </c>
       <c r="I5" s="1">
         <f>I4*I3</f>
-        <v>1133082.25</v>
+        <v>1003018</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
@@ -1026,77 +1054,70 @@
       </c>
       <c r="I8" s="1">
         <f>I5-I6+I7</f>
-        <v>1186884.25</v>
+        <v>1056820</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I9">
-        <f>I8/15000</f>
-        <v>79.125616666666673</v>
-      </c>
-      <c r="J9" s="1">
-        <f>+I6-I7</f>
-        <v>-53802</v>
-      </c>
+      <c r="J9" s="1"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
       <c r="E11" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="15"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="12"/>
       <c r="E12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="15"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="12"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="15"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="12"/>
       <c r="E14" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="15"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="12"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="15"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="12"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="8" t="s">
+      <c r="C17" s="6"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="5" t="s">
         <v>64</v>
       </c>
       <c r="G17" t="s">
@@ -1107,11 +1128,11 @@
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="15"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="12"/>
       <c r="E18" t="s">
         <v>65</v>
       </c>
@@ -1123,11 +1144,11 @@
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="15"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="12"/>
       <c r="E19" t="s">
         <v>66</v>
       </c>
@@ -1139,35 +1160,35 @@
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="15"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="12"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="15"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="12"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="15"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="12"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="18"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="15"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="16" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1178,1288 +1199,1355 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A597E8C6-7A7E-8F45-B4A3-D864AB4D46A5}">
-  <dimension ref="A1:R55"/>
+  <dimension ref="A1:T55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="138" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="I12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="5">
+      <c r="E1" s="19">
         <v>44773</v>
       </c>
-      <c r="F1" s="5">
+      <c r="F1" s="19">
         <v>44864</v>
       </c>
-      <c r="G1" s="5">
+      <c r="G1" s="19">
         <v>44955</v>
       </c>
-      <c r="H1" s="5">
+      <c r="H1" s="19">
         <v>45046</v>
       </c>
-      <c r="I1" s="5">
+      <c r="I1" s="19">
         <v>45137</v>
       </c>
-      <c r="J1" s="5">
+      <c r="J1" s="19">
         <v>45228</v>
       </c>
-      <c r="K1" s="5">
+      <c r="K1" s="19">
         <v>45326</v>
       </c>
-      <c r="L1" s="5">
+      <c r="L1" s="19">
         <v>45417</v>
       </c>
-      <c r="M1" s="5">
+      <c r="M1" s="19">
         <v>45508</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C2" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="18" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="T2" s="18">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B3" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="20">
         <v>6627</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1">
+      <c r="F3" s="20"/>
+      <c r="G3" s="20">
         <v>7082</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="20">
         <v>6741</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="20">
         <v>6917</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1">
+      <c r="J3" s="20"/>
+      <c r="K3" s="20">
         <v>7412</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="20">
         <v>7192</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="20">
         <v>7439</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="N3" s="20"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B4" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="20">
         <v>1837</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1">
+      <c r="F4" s="20"/>
+      <c r="G4" s="20">
         <v>1833</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="20">
         <v>1992</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="20">
         <v>1959</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1">
+      <c r="J4" s="20"/>
+      <c r="K4" s="20">
         <v>4549</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="20">
         <v>5295</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="20">
         <v>5633</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="N4" s="20"/>
+    </row>
+    <row r="5" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="22">
         <f>E4+E3</f>
         <v>8464</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="22">
         <v>8930</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="22">
         <f>G4+G3</f>
         <v>8915</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="22">
         <f>H4+H3</f>
         <v>8733</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="22">
         <f>I4+I3</f>
         <v>8876</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="22">
         <v>9295</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="22">
         <f>K4+K3</f>
         <v>11961</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="22">
         <f>L4+L3</f>
         <v>12487</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="22">
         <f>M4+M3</f>
         <v>13072</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="N5" s="22">
+        <v>14054</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B6" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="20">
         <v>2077</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="20">
         <v>2077</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="20">
         <v>2911</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="20">
         <v>2177</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="20">
         <v>2272</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="20">
         <v>2449</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="20">
         <v>3114</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="20">
         <v>3142</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="20">
         <v>3133</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="N6" s="20">
+        <v>3399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="22">
         <f t="shared" ref="E7:M7" si="0">E5-E6</f>
         <v>6387</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="22">
         <f t="shared" si="0"/>
         <v>6853</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="22">
         <f t="shared" si="0"/>
         <v>6004</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="22">
         <f t="shared" si="0"/>
         <v>6556</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="22">
         <f t="shared" si="0"/>
         <v>6604</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="22">
         <f t="shared" si="0"/>
         <v>6846</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="22">
         <f t="shared" si="0"/>
         <v>8847</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="22">
         <f t="shared" si="0"/>
         <v>9345</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="22">
         <f t="shared" si="0"/>
         <v>9939</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="N7" s="22">
+        <f t="shared" ref="N7" si="1">N5-N6</f>
+        <v>10655</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B8" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="20">
         <v>1255</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="20">
         <v>1255</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="20">
         <v>1195</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="20">
         <v>1312</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="20">
         <v>1358</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="20">
         <v>1388</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="20">
         <v>2308</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="20">
         <v>2415</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="20">
         <v>2353</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="N8" s="20">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B9" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="20">
         <v>323</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="20">
         <v>323</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="20">
         <v>348</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="20">
         <v>438</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="20">
         <v>388</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="20">
         <v>418</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="20">
         <v>1572</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="20">
         <v>1277</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="20">
         <v>1100</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="N9" s="20">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B10" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="20">
         <v>359</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="20">
         <v>359</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="20">
         <v>348</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="20">
         <v>348</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="20">
         <v>350</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="20">
         <v>348</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="20">
         <v>792</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="20">
         <v>827</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="20">
         <v>812</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="N10" s="20">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B11" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="20">
         <v>7</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="20">
         <v>7</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="20">
         <v>10</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="20">
         <v>9</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="20">
         <v>212</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="20">
         <v>13</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="20">
         <v>620</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="20">
         <v>292</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="20">
         <v>303</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="N11" s="20">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B12" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="1">
-        <f t="shared" ref="E12:M12" si="1">SUM(E8:E11)</f>
+      <c r="E12" s="20">
+        <f t="shared" ref="E12:M12" si="2">SUM(E8:E11)</f>
         <v>1944</v>
       </c>
-      <c r="F12" s="1">
-        <f t="shared" si="1"/>
+      <c r="F12" s="20">
+        <f t="shared" si="2"/>
         <v>1944</v>
       </c>
-      <c r="G12" s="1">
-        <f t="shared" si="1"/>
+      <c r="G12" s="20">
+        <f t="shared" si="2"/>
         <v>1901</v>
       </c>
-      <c r="H12" s="1">
-        <f t="shared" si="1"/>
+      <c r="H12" s="20">
+        <f t="shared" si="2"/>
         <v>2107</v>
       </c>
-      <c r="I12" s="1">
-        <f t="shared" si="1"/>
+      <c r="I12" s="20">
+        <f t="shared" si="2"/>
         <v>2308</v>
       </c>
-      <c r="J12" s="1">
-        <f t="shared" si="1"/>
+      <c r="J12" s="20">
+        <f t="shared" si="2"/>
         <v>2167</v>
       </c>
-      <c r="K12" s="1">
-        <f t="shared" si="1"/>
+      <c r="K12" s="20">
+        <f t="shared" si="2"/>
         <v>5292</v>
       </c>
-      <c r="L12" s="1">
-        <f t="shared" si="1"/>
+      <c r="L12" s="20">
+        <f t="shared" si="2"/>
         <v>4811</v>
       </c>
-      <c r="M12" s="1">
-        <f t="shared" si="1"/>
+      <c r="M12" s="20">
+        <f t="shared" si="2"/>
         <v>4568</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+      <c r="N12" s="20">
+        <f t="shared" ref="N12" si="3">SUM(N8:N11)</f>
+        <v>4375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="6">
-        <f t="shared" ref="E13:M13" si="2">E7-E12</f>
+      <c r="E13" s="22">
+        <f t="shared" ref="E13:M13" si="4">E7-E12</f>
         <v>4443</v>
       </c>
-      <c r="F13" s="6">
-        <f t="shared" si="2"/>
+      <c r="F13" s="22">
+        <f t="shared" si="4"/>
         <v>4909</v>
       </c>
-      <c r="G13" s="6">
-        <f t="shared" si="2"/>
+      <c r="G13" s="22">
+        <f t="shared" si="4"/>
         <v>4103</v>
       </c>
-      <c r="H13" s="6">
-        <f t="shared" si="2"/>
+      <c r="H13" s="22">
+        <f t="shared" si="4"/>
         <v>4449</v>
       </c>
-      <c r="I13" s="6">
-        <f t="shared" si="2"/>
+      <c r="I13" s="22">
+        <f t="shared" si="4"/>
         <v>4296</v>
       </c>
-      <c r="J13" s="6">
-        <f t="shared" si="2"/>
+      <c r="J13" s="22">
+        <f t="shared" si="4"/>
         <v>4679</v>
       </c>
-      <c r="K13" s="6">
-        <f t="shared" si="2"/>
+      <c r="K13" s="22">
+        <f t="shared" si="4"/>
         <v>3555</v>
       </c>
-      <c r="L13" s="6">
-        <f t="shared" si="2"/>
+      <c r="L13" s="22">
+        <f t="shared" si="4"/>
         <v>4534</v>
       </c>
-      <c r="M13" s="6">
-        <f t="shared" si="2"/>
+      <c r="M13" s="22">
+        <f t="shared" si="4"/>
         <v>5371</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="N13" s="22">
+        <f t="shared" ref="N13" si="5">N7-N12</f>
+        <v>6280</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B14" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="20">
         <v>406</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="20">
         <v>406</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="20">
         <v>406</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="20">
         <v>405</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="20">
         <v>406</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="20">
         <v>405</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="20">
         <v>926</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="20">
         <v>1047</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="20">
         <v>1064</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="N14" s="20">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B15" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="20">
         <v>6</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="20">
         <v>6</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="20">
         <v>143</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="20">
         <v>113</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="20">
         <v>124</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="20">
         <v>132</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="20">
         <v>185</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="20">
         <v>87</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15" s="20">
         <v>82</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="N15" s="20">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B16" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="20">
         <v>263</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="20">
         <v>263</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="20">
         <v>66</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="20">
         <v>235</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="20">
         <v>271</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="20">
         <v>443</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="20">
         <v>68</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16" s="20">
         <v>-116</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16" s="20">
         <v>4238</v>
       </c>
-    </row>
-    <row r="17" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
+      <c r="N16" s="20">
+        <v>-442</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="22">
         <f>E13-E14+E15+E16</f>
         <v>4306</v>
       </c>
-      <c r="F17" s="6">
-        <f t="shared" ref="F17:M17" si="3">F13-F14+F15-F16</f>
+      <c r="F17" s="22">
+        <f t="shared" ref="F17:M17" si="6">F13-F14+F15-F16</f>
         <v>4246</v>
       </c>
-      <c r="G17" s="6">
-        <f t="shared" si="3"/>
+      <c r="G17" s="22">
+        <f t="shared" si="6"/>
         <v>3774</v>
       </c>
-      <c r="H17" s="6">
-        <f t="shared" si="3"/>
+      <c r="H17" s="22">
+        <f t="shared" si="6"/>
         <v>3922</v>
       </c>
-      <c r="I17" s="6">
-        <f t="shared" si="3"/>
+      <c r="I17" s="22">
+        <f t="shared" si="6"/>
         <v>3743</v>
       </c>
-      <c r="J17" s="6">
-        <f t="shared" si="3"/>
+      <c r="J17" s="22">
+        <f t="shared" si="6"/>
         <v>3963</v>
       </c>
-      <c r="K17" s="6">
-        <f t="shared" si="3"/>
+      <c r="K17" s="22">
+        <f t="shared" si="6"/>
         <v>2746</v>
       </c>
-      <c r="L17" s="6">
-        <f t="shared" si="3"/>
+      <c r="L17" s="22">
+        <f t="shared" si="6"/>
         <v>3690</v>
       </c>
-      <c r="M17" s="6">
-        <f t="shared" si="3"/>
+      <c r="M17" s="22">
+        <f t="shared" si="6"/>
         <v>151</v>
       </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="N17" s="22">
+        <f t="shared" ref="N17" si="7">N13-N14+N15-N16</f>
+        <v>5858</v>
+      </c>
+      <c r="T17" s="22">
+        <f>+SUM(K17:N17)</f>
+        <v>12445</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B18" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="7">
-        <f t="shared" ref="E18:M18" si="4">E17/E19</f>
+      <c r="E18" s="23">
+        <f t="shared" ref="E18:M18" si="8">E17/E19</f>
         <v>1.0013953488372094</v>
       </c>
-      <c r="F18" s="7">
-        <f t="shared" si="4"/>
+      <c r="F18" s="23">
+        <f t="shared" si="8"/>
         <v>0.98974358974358978</v>
       </c>
-      <c r="G18" s="7">
-        <f t="shared" si="4"/>
+      <c r="G18" s="23">
+        <f t="shared" si="8"/>
         <v>0.87972027972027977</v>
       </c>
-      <c r="H18" s="7">
-        <f t="shared" si="4"/>
+      <c r="H18" s="23">
+        <f t="shared" si="8"/>
         <v>0.91850117096018735</v>
       </c>
-      <c r="I18" s="7">
-        <f t="shared" si="4"/>
+      <c r="I18" s="23">
+        <f t="shared" si="8"/>
         <v>0.90629539951573845</v>
       </c>
-      <c r="J18" s="7">
-        <f t="shared" si="4"/>
+      <c r="J18" s="23">
+        <f t="shared" si="8"/>
         <v>0.92810304449648717</v>
       </c>
-      <c r="K18" s="7">
-        <f t="shared" si="4"/>
+      <c r="K18" s="23">
+        <f t="shared" si="8"/>
         <v>0.58889127171348921</v>
       </c>
-      <c r="L18" s="7">
-        <f t="shared" si="4"/>
+      <c r="L18" s="23">
+        <f t="shared" si="8"/>
         <v>0.76891018962283808</v>
       </c>
-      <c r="M18" s="7">
-        <f t="shared" si="4"/>
+      <c r="M18" s="23">
+        <f t="shared" si="8"/>
         <v>3.2382586317821142E-2</v>
       </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="N18" s="23">
+        <f t="shared" ref="N18" si="9">N17/N19</f>
+        <v>1.2133388566694283</v>
+      </c>
+      <c r="T18" s="23">
+        <f>+T17/T19</f>
+        <v>2.5776719138359567</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B19" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="20">
         <f>430*10</f>
         <v>4300</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="20">
         <f>429*10</f>
         <v>4290</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="20">
         <f>429*10</f>
         <v>4290</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="20">
         <f>427*10</f>
         <v>4270</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="20">
         <v>4130</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="20">
         <f>427*10</f>
         <v>4270</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="20">
         <v>4663</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19" s="20">
         <v>4799</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M19" s="20">
         <v>4663</v>
       </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="N19" s="20">
+        <v>4828</v>
+      </c>
+      <c r="T19" s="18">
+        <v>4828</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B20" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="20">
         <v>75</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="23">
         <v>5.25</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="23">
         <v>5.25</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B22" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="20">
         <f>I36+I41</f>
         <v>4597</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="20">
         <f>K36+K41</f>
         <v>4693</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L22" s="20">
         <f>L36+L41</f>
         <v>4448</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22" s="20">
         <f>M36+M41</f>
         <v>4791</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B23" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="24">
         <f>I5/E5-1</f>
         <v>4.8676748582230589E-2</v>
       </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3">
+      <c r="J23" s="24"/>
+      <c r="K23" s="24">
         <f>K5/G5-1</f>
         <v>0.34167134043746494</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23" s="24">
         <f>L5/H5-1</f>
         <v>0.42986373525707089</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M23" s="24">
         <f>M5/I5-1</f>
         <v>0.47273546642631814</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="s">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B24" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="E24" s="3">
-        <f t="shared" ref="E24:M24" si="5">E7/E5</f>
+      <c r="E24" s="24">
+        <f t="shared" ref="E24:M24" si="10">E7/E5</f>
         <v>0.75460775047258977</v>
       </c>
-      <c r="F24" s="3">
-        <f t="shared" si="5"/>
+      <c r="F24" s="24">
+        <f t="shared" si="10"/>
         <v>0.76741321388577832</v>
       </c>
-      <c r="G24" s="3">
-        <f t="shared" si="5"/>
+      <c r="G24" s="24">
+        <f t="shared" si="10"/>
         <v>0.67347167694896237</v>
       </c>
-      <c r="H24" s="3">
-        <f t="shared" si="5"/>
+      <c r="H24" s="24">
+        <f t="shared" si="10"/>
         <v>0.75071567617084622</v>
       </c>
-      <c r="I24" s="3">
-        <f t="shared" si="5"/>
+      <c r="I24" s="24">
+        <f t="shared" si="10"/>
         <v>0.74402884182063989</v>
       </c>
-      <c r="J24" s="3">
-        <f t="shared" si="5"/>
+      <c r="J24" s="24">
+        <f t="shared" si="10"/>
         <v>0.7365250134480904</v>
       </c>
-      <c r="K24" s="3">
-        <f t="shared" si="5"/>
+      <c r="K24" s="24">
+        <f t="shared" si="10"/>
         <v>0.73965387509405567</v>
       </c>
-      <c r="L24" s="3">
-        <f t="shared" si="5"/>
+      <c r="L24" s="24">
+        <f t="shared" si="10"/>
         <v>0.74837831344598382</v>
       </c>
-      <c r="M24" s="3">
-        <f t="shared" si="5"/>
+      <c r="M24" s="24">
+        <f t="shared" si="10"/>
         <v>0.76032741738066101</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B25" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="3">
-        <f t="shared" ref="E25:M25" si="6">E13/E5</f>
+      <c r="E25" s="24">
+        <f t="shared" ref="E25:M25" si="11">E13/E5</f>
         <v>0.52492911153119093</v>
       </c>
-      <c r="F25" s="3">
-        <f t="shared" si="6"/>
+      <c r="F25" s="24">
+        <f t="shared" si="11"/>
         <v>0.5497200447928331</v>
       </c>
-      <c r="G25" s="3">
-        <f t="shared" si="6"/>
+      <c r="G25" s="24">
+        <f t="shared" si="11"/>
         <v>0.4602355580482333</v>
       </c>
-      <c r="H25" s="3">
-        <f t="shared" si="6"/>
+      <c r="H25" s="24">
+        <f t="shared" si="11"/>
         <v>0.50944692545517001</v>
       </c>
-      <c r="I25" s="3">
-        <f t="shared" si="6"/>
+      <c r="I25" s="24">
+        <f t="shared" si="11"/>
         <v>0.48400180261379</v>
       </c>
-      <c r="J25" s="3">
-        <f t="shared" si="6"/>
+      <c r="J25" s="24">
+        <f t="shared" si="11"/>
         <v>0.5033889187735342</v>
       </c>
-      <c r="K25" s="3">
-        <f t="shared" si="6"/>
+      <c r="K25" s="24">
+        <f t="shared" si="11"/>
         <v>0.29721595184349137</v>
       </c>
-      <c r="L25" s="3">
-        <f t="shared" si="6"/>
+      <c r="L25" s="24">
+        <f t="shared" si="11"/>
         <v>0.36309762152638747</v>
       </c>
-      <c r="M25" s="3">
-        <f t="shared" si="6"/>
+      <c r="M25" s="24">
+        <f t="shared" si="11"/>
         <v>0.41087821297429622</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B27" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="20">
         <v>3303</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="20">
         <v>1274</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L27" s="20">
         <v>2121</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M27" s="20">
         <v>-2349</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B28" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28" s="20">
         <v>3303</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="20">
         <v>1325</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L28" s="20">
         <v>2121</v>
       </c>
-      <c r="M28" s="1">
+      <c r="M28" s="20">
         <v>-1875</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B29" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29" s="20">
         <v>810</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="20">
         <v>2206</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L29" s="20">
         <v>2381</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M29" s="20">
         <v>2375</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B30" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="20">
         <v>122</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="20">
         <v>139</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L30" s="20">
         <v>149</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M30" s="20">
         <v>149</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B31" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="20">
         <v>629</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" s="20">
         <v>1582</v>
       </c>
-      <c r="L31" s="1">
+      <c r="L31" s="20">
         <v>1457</v>
       </c>
-      <c r="M31" s="1">
+      <c r="M31" s="20">
         <v>1388</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B32" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="20">
         <v>-251</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32" s="20">
         <v>-294</v>
       </c>
-      <c r="L32" s="1">
+      <c r="L32" s="20">
         <v>-511</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M32" s="20">
         <v>3638</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B33" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I33" s="20">
         <v>0</v>
       </c>
-      <c r="K33" s="1">
+      <c r="K33" s="20">
         <v>0</v>
       </c>
-      <c r="L33" s="1">
+      <c r="L33" s="20">
         <v>22</v>
       </c>
-      <c r="M33" s="1">
+      <c r="M33" s="20">
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B34" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="I34" s="1">
+      <c r="I34" s="20">
         <v>33</v>
       </c>
-      <c r="K34" s="1">
+      <c r="K34" s="20">
         <v>102</v>
       </c>
-      <c r="L34" s="1">
+      <c r="L34" s="20">
         <v>119</v>
       </c>
-      <c r="M34" s="1">
+      <c r="M34" s="20">
         <f>115+158</f>
         <v>273</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B35" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="I35" s="1">
+      <c r="I35" s="20">
         <f>135+44+188+184-339-139</f>
         <v>73</v>
       </c>
-      <c r="K35" s="1">
+      <c r="K35" s="20">
         <f>38+1756-14-74-660-2182+891</f>
         <v>-245</v>
       </c>
-      <c r="L35" s="1">
+      <c r="L35" s="20">
         <f>70-513+82-93+251-386-569</f>
         <v>-1158</v>
       </c>
-      <c r="M35" s="1">
+      <c r="M35" s="20">
         <f>835-52+373+291-1345-1170</f>
         <v>-1068</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B36" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="I36" s="1">
+      <c r="I36" s="20">
         <f>SUM(I28:I35)</f>
         <v>4719</v>
       </c>
-      <c r="K36" s="1">
+      <c r="K36" s="20">
         <f>SUM(K28:K35)</f>
         <v>4815</v>
       </c>
-      <c r="L36" s="1">
+      <c r="L36" s="20">
         <f>SUM(L28:L35)</f>
         <v>4580</v>
       </c>
-      <c r="M36" s="1">
+      <c r="M36" s="20">
         <f>SUM(M28:M35)</f>
         <v>4963</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B39" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="I39" s="1">
+      <c r="I39" s="20">
         <v>-17</v>
       </c>
-      <c r="K39" s="6">
+      <c r="K39" s="22">
         <v>-25416</v>
       </c>
-      <c r="L39" s="1">
+      <c r="L39" s="20">
         <v>-560</v>
       </c>
-      <c r="M39" s="1">
+      <c r="M39" s="20">
         <v>-2</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B40" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="I40" s="1">
+      <c r="I40" s="20">
         <v>0</v>
       </c>
-      <c r="K40" s="1">
+      <c r="K40" s="20">
         <v>0</v>
       </c>
-      <c r="L40" s="1">
+      <c r="L40" s="20">
         <v>0</v>
       </c>
-      <c r="M40" s="1">
+      <c r="M40" s="20">
         <v>3485</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B41" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="I41" s="1">
+      <c r="I41" s="20">
         <v>-122</v>
       </c>
-      <c r="K41" s="1">
+      <c r="K41" s="20">
         <v>-122</v>
       </c>
-      <c r="L41" s="1">
+      <c r="L41" s="20">
         <v>-132</v>
       </c>
-      <c r="M41" s="1">
+      <c r="M41" s="20">
         <v>-172</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B42" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="I42" s="1">
+      <c r="I42" s="20">
         <v>-91</v>
       </c>
-      <c r="K42" s="1">
+      <c r="K42" s="20">
         <v>-13</v>
       </c>
-      <c r="L42" s="1">
+      <c r="L42" s="20">
         <v>-59</v>
       </c>
-      <c r="M42" s="1">
+      <c r="M42" s="20">
         <v>-73</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B43" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="I43" s="1">
+      <c r="I43" s="20">
         <v>74</v>
       </c>
-      <c r="K43" s="1">
+      <c r="K43" s="20">
         <v>89</v>
       </c>
-      <c r="L43" s="1">
+      <c r="L43" s="20">
         <v>42</v>
       </c>
-      <c r="M43" s="1">
+      <c r="M43" s="20">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B44" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="I44" s="1">
+      <c r="I44" s="20">
         <v>12</v>
       </c>
-      <c r="K44" s="1">
+      <c r="K44" s="20">
         <v>-15</v>
       </c>
-      <c r="L44" s="1">
+      <c r="L44" s="20">
         <v>3</v>
       </c>
-      <c r="M44" s="1">
+      <c r="M44" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B45" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="I45" s="1">
+      <c r="I45" s="20">
         <f>SUM(I39:I44)</f>
         <v>-144</v>
       </c>
-      <c r="K45" s="1">
+      <c r="K45" s="20">
         <f>SUM(K39:K44)</f>
         <v>-25477</v>
       </c>
-      <c r="L45" s="1">
+      <c r="L45" s="20">
         <f>SUM(L39:L44)</f>
         <v>-706</v>
       </c>
-      <c r="M45" s="1">
+      <c r="M45" s="20">
         <f>SUM(M39:M44)</f>
         <v>3245</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="M46" s="1"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="20"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B47" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="I47" s="1">
+      <c r="I47" s="20">
         <v>0</v>
       </c>
-      <c r="K47" s="1">
+      <c r="K47" s="20">
         <v>30010</v>
       </c>
-      <c r="L47" s="1">
+      <c r="L47" s="20">
         <v>0</v>
       </c>
-      <c r="M47" s="1">
+      <c r="M47" s="20">
         <v>4975</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B48" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="I48" s="1">
+      <c r="I48" s="20">
         <v>0</v>
       </c>
-      <c r="K48" s="1">
+      <c r="K48" s="20">
         <v>-934</v>
       </c>
-      <c r="L48" s="1">
+      <c r="L48" s="20">
         <v>-2000</v>
       </c>
-      <c r="M48" s="1">
+      <c r="M48" s="20">
         <v>-9202</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B49" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="I49" s="1">
+      <c r="I49" s="20">
         <v>-1901</v>
       </c>
-      <c r="K49" s="1">
+      <c r="K49" s="20">
         <v>-2435</v>
       </c>
-      <c r="L49" s="1">
+      <c r="L49" s="20">
         <v>-2443</v>
       </c>
-      <c r="M49" s="1">
+      <c r="M49" s="20">
         <v>-2452</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B50" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="I50" s="1">
+      <c r="I50" s="20">
         <f>-1707-460</f>
         <v>-2167</v>
       </c>
-      <c r="K50" s="1">
+      <c r="K50" s="20">
         <f>-7176-1114</f>
         <v>-8290</v>
       </c>
-      <c r="L50" s="1">
+      <c r="L50" s="20">
         <v>-1548</v>
       </c>
-      <c r="M50" s="1">
+      <c r="M50" s="20">
         <v>-1350</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B51" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="I51" s="1">
+      <c r="I51" s="20">
         <v>0</v>
       </c>
-      <c r="K51" s="1">
+      <c r="K51" s="20">
         <v>0</v>
       </c>
-      <c r="L51" s="1">
+      <c r="L51" s="20">
         <v>64</v>
       </c>
-      <c r="M51" s="1">
+      <c r="M51" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B52" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="I52" s="1">
+      <c r="I52" s="20">
         <v>-5</v>
       </c>
-      <c r="K52" s="1">
+      <c r="K52" s="20">
         <v>-14</v>
       </c>
-      <c r="L52" s="1">
+      <c r="L52" s="20">
         <v>-2</v>
       </c>
-      <c r="M52" s="1">
+      <c r="M52" s="20">
         <v>-36</v>
       </c>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B53" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="I53" s="1">
+      <c r="I53" s="20">
         <f>SUM(I47:I52)</f>
         <v>-4073</v>
       </c>
-      <c r="K53" s="1">
+      <c r="K53" s="20">
         <f>SUM(K47:K52)</f>
         <v>18337</v>
       </c>
-      <c r="L53" s="1">
+      <c r="L53" s="20">
         <f>SUM(L47:L52)</f>
         <v>-5929</v>
       </c>
-      <c r="M53" s="1">
+      <c r="M53" s="20">
         <f>SUM(M47:M52)</f>
         <v>-8065</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B54" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="I54" s="1">
+      <c r="I54" s="20">
         <f>I53+I45+I36</f>
         <v>502</v>
       </c>
-      <c r="K54" s="1">
+      <c r="K54" s="20">
         <f>K53+K45+K36</f>
         <v>-2325</v>
       </c>
-      <c r="L54" s="1">
+      <c r="L54" s="20">
         <f>L53+L45+L36</f>
         <v>-2055</v>
       </c>
-      <c r="M54" s="1">
+      <c r="M54" s="20">
         <f>M53+M45+M36</f>
         <v>143</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="M55" s="1"/>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M55" s="20"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/AVGO.xlsx
+++ b/AVGO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kipp\Documents\GitHub\Financial-Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA98643A-8C94-4A6B-A974-400B544846DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1D6B7E-9684-4CAF-A215-2FEA53284510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8490" yWindow="1275" windowWidth="19515" windowHeight="14445" activeTab="1" xr2:uid="{CD9BD821-AB0F-D54C-A355-45DF6A10BD02}"/>
+    <workbookView xWindow="8025" yWindow="1800" windowWidth="18630" windowHeight="13365" activeTab="1" xr2:uid="{CD9BD821-AB0F-D54C-A355-45DF6A10BD02}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -39,10 +39,36 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>Kipp</author>
     <author>Rasmus</author>
   </authors>
   <commentList>
-    <comment ref="K39" authorId="0" shapeId="0" xr:uid="{3B52A485-F599-CB4E-B8FA-62357F455C12}">
+    <comment ref="P5" authorId="0" shapeId="0" xr:uid="{5E9D7571-C471-4DC1-A793-BFC03E0B4685}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Kipp:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+guidance 14.9Bn
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K39" authorId="1" shapeId="0" xr:uid="{3B52A485-F599-CB4E-B8FA-62357F455C12}">
       <text>
         <r>
           <rPr>
@@ -80,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="88">
   <si>
     <t>Price</t>
   </si>
@@ -103,18 +129,6 @@
     <t>Q424</t>
   </si>
   <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Asia</t>
-  </si>
-  <si>
-    <t>Europe</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
     <t>digital and mixed signal metal oxide semiconductors</t>
   </si>
   <si>
@@ -214,12 +228,6 @@
     <t>Q425</t>
   </si>
   <si>
-    <t>Products</t>
-  </si>
-  <si>
-    <t>Services</t>
-  </si>
-  <si>
     <t>Revenue</t>
   </si>
   <si>
@@ -265,9 +273,6 @@
     <t>Vmware owns</t>
   </si>
   <si>
-    <t>10/1 split 15/07/24</t>
-  </si>
-  <si>
     <t>Dividends</t>
   </si>
   <si>
@@ -359,13 +364,19 @@
   </si>
   <si>
     <t>Operating Margin %</t>
+  </si>
+  <si>
+    <t>Semiconductor</t>
+  </si>
+  <si>
+    <t>Software</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -433,6 +444,19 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="186"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -541,7 +565,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -562,6 +585,7 @@
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -584,14 +608,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>12682</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>5355</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>12683</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>5356</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>64098</xdr:rowOff>
     </xdr:to>
@@ -608,22 +632,22 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11811776" y="0"/>
-          <a:ext cx="1" cy="8904489"/>
+          <a:off x="12585682" y="0"/>
+          <a:ext cx="1" cy="8929675"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -952,67 +976,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7D4186-76D5-0B4C-8BB5-B5D76C77ED61}">
-  <dimension ref="B2:L24"/>
+  <dimension ref="B3:L24"/>
   <sheetViews>
-    <sheetView zoomScale="138" zoomScaleNormal="138" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-    </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
       <c r="H3" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="4">
-        <v>214</v>
+      <c r="I3" s="24">
+        <v>199.45</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>61</v>
-      </c>
       <c r="H4" t="s">
         <v>1</v>
       </c>
       <c r="I4" s="1">
-        <v>4687</v>
+        <v>4836</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K4">
         <v>544</v>
       </c>
       <c r="L4" s="3">
         <f>K4/I4</f>
-        <v>0.11606571367612545</v>
+        <v>0.11248966087675766</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="H5" t="s">
         <v>2</v>
       </c>
       <c r="I5" s="1">
         <f>I4*I3</f>
-        <v>1003018</v>
+        <v>964540.2</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
@@ -1020,121 +1028,120 @@
         <v>3</v>
       </c>
       <c r="I6" s="1">
-        <f>9348+4416</f>
-        <v>13764</v>
+        <v>9307</v>
       </c>
       <c r="J6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H7" t="s">
         <v>4</v>
       </c>
       <c r="I7" s="1">
-        <f>1271+66295</f>
-        <v>67566</v>
+        <f>5653+60926</f>
+        <v>66579</v>
       </c>
       <c r="J7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H8" t="s">
         <v>5</v>
       </c>
       <c r="I8" s="1">
         <f>I5-I6+I7</f>
-        <v>1056820</v>
+        <v>1021812.2</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J9" s="1"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="11"/>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="11"/>
+      <c r="E14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-      <c r="E11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="11" t="s">
+      <c r="C15" s="5"/>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="12"/>
-      <c r="E12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="11" t="s">
+      <c r="C16" s="5"/>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="12"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
+      <c r="C17" s="5"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="12"/>
-      <c r="E14" t="s">
+      <c r="C18" s="5"/>
+      <c r="D18" s="11"/>
+      <c r="E18" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="12"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="12"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G17" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="12"/>
-      <c r="E18" t="s">
-        <v>65</v>
       </c>
       <c r="G18" s="3">
         <v>0.57999999999999996</v>
@@ -1144,13 +1151,13 @@
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="12"/>
+      <c r="B19" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="11"/>
       <c r="E19" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G19" s="3">
         <v>0.42</v>
@@ -1160,40 +1167,41 @@
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="12"/>
+      <c r="B20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="11"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="12"/>
+      <c r="B21" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="11"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="12"/>
+      <c r="B22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="11"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="15"/>
+      <c r="B23" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="14"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="16" t="s">
-        <v>84</v>
+      <c r="B24" s="15" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1201,1353 +1209,1688 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A597E8C6-7A7E-8F45-B4A3-D864AB4D46A5}">
   <dimension ref="A1:T55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="I12" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="K9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11" style="18"/>
+    <col min="1" max="1" width="5.125" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="18">
+        <v>44773</v>
+      </c>
+      <c r="F1" s="18">
+        <v>44864</v>
+      </c>
+      <c r="G1" s="18">
+        <v>44955</v>
+      </c>
+      <c r="H1" s="18">
+        <v>45046</v>
+      </c>
+      <c r="I1" s="18">
+        <v>45137</v>
+      </c>
+      <c r="J1" s="18">
+        <v>45228</v>
+      </c>
+      <c r="K1" s="18">
+        <v>45326</v>
+      </c>
+      <c r="L1" s="18">
+        <v>45417</v>
+      </c>
+      <c r="M1" s="18">
+        <v>45508</v>
+      </c>
+      <c r="O1" s="18">
+        <v>45690</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C2" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="19">
-        <v>44773</v>
-      </c>
-      <c r="F1" s="19">
-        <v>44864</v>
-      </c>
-      <c r="G1" s="19">
-        <v>44955</v>
-      </c>
-      <c r="H1" s="19">
-        <v>45046</v>
-      </c>
-      <c r="I1" s="19">
-        <v>45137</v>
-      </c>
-      <c r="J1" s="19">
-        <v>45228</v>
-      </c>
-      <c r="K1" s="19">
-        <v>45326</v>
-      </c>
-      <c r="L1" s="19">
-        <v>45417</v>
-      </c>
-      <c r="M1" s="19">
-        <v>45508</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="H2" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="I2" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="J2" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="K2" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="L2" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="M2" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="N2" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="P2" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="Q2" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="R2" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="O2" s="18" t="s">
+      <c r="T2" s="17">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B3" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="19">
+        <v>6053</v>
+      </c>
+      <c r="D3" s="19">
+        <v>6417</v>
+      </c>
+      <c r="E3" s="19">
+        <v>6627</v>
+      </c>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19">
+        <v>7082</v>
+      </c>
+      <c r="H3" s="19">
+        <v>6741</v>
+      </c>
+      <c r="I3" s="19">
+        <v>6917</v>
+      </c>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19">
+        <v>7412</v>
+      </c>
+      <c r="L3" s="19">
+        <v>7192</v>
+      </c>
+      <c r="M3" s="19">
+        <v>7439</v>
+      </c>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19">
+        <v>8212</v>
+      </c>
+      <c r="P3" s="19">
+        <f>+P5*0.55</f>
+        <v>8195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B4" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="19">
+        <v>1653</v>
+      </c>
+      <c r="D4" s="19">
+        <v>1686</v>
+      </c>
+      <c r="E4" s="19">
+        <v>1837</v>
+      </c>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19">
+        <v>1833</v>
+      </c>
+      <c r="H4" s="19">
+        <v>1992</v>
+      </c>
+      <c r="I4" s="19">
+        <v>1959</v>
+      </c>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19">
+        <v>4549</v>
+      </c>
+      <c r="L4" s="19">
+        <v>5295</v>
+      </c>
+      <c r="M4" s="19">
+        <v>5633</v>
+      </c>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19">
+        <v>6704</v>
+      </c>
+      <c r="P4" s="19">
+        <f>+P5*0.45</f>
+        <v>6705</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="P2" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q2" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="R2" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="T2" s="18">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B3" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="20">
-        <v>6627</v>
-      </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20">
-        <v>7082</v>
-      </c>
-      <c r="H3" s="20">
-        <v>6741</v>
-      </c>
-      <c r="I3" s="20">
-        <v>6917</v>
-      </c>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20">
-        <v>7412</v>
-      </c>
-      <c r="L3" s="20">
-        <v>7192</v>
-      </c>
-      <c r="M3" s="20">
-        <v>7439</v>
-      </c>
-      <c r="N3" s="20"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B4" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="20">
-        <v>1837</v>
-      </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20">
-        <v>1833</v>
-      </c>
-      <c r="H4" s="20">
-        <v>1992</v>
-      </c>
-      <c r="I4" s="20">
-        <v>1959</v>
-      </c>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20">
-        <v>4549</v>
-      </c>
-      <c r="L4" s="20">
-        <v>5295</v>
-      </c>
-      <c r="M4" s="20">
-        <v>5633</v>
-      </c>
-      <c r="N4" s="20"/>
-    </row>
-    <row r="5" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="22">
+      <c r="C5" s="21">
+        <f>C4+C3</f>
+        <v>7706</v>
+      </c>
+      <c r="D5" s="21">
+        <f>D4+D3</f>
+        <v>8103</v>
+      </c>
+      <c r="E5" s="21">
         <f>E4+E3</f>
         <v>8464</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="21">
         <v>8930</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="21">
         <f>G4+G3</f>
         <v>8915</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="21">
         <f>H4+H3</f>
         <v>8733</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="21">
         <f>I4+I3</f>
         <v>8876</v>
       </c>
-      <c r="J5" s="22">
+      <c r="J5" s="21">
         <v>9295</v>
       </c>
-      <c r="K5" s="22">
+      <c r="K5" s="21">
         <f>K4+K3</f>
         <v>11961</v>
       </c>
-      <c r="L5" s="22">
+      <c r="L5" s="21">
         <f>L4+L3</f>
         <v>12487</v>
       </c>
-      <c r="M5" s="22">
+      <c r="M5" s="21">
         <f>M4+M3</f>
         <v>13072</v>
       </c>
-      <c r="N5" s="22">
+      <c r="N5" s="21">
         <v>14054</v>
       </c>
+      <c r="O5" s="21">
+        <v>14916</v>
+      </c>
+      <c r="P5" s="20">
+        <v>14900</v>
+      </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="19">
+        <v>1769</v>
+      </c>
+      <c r="D6" s="19">
+        <v>1798</v>
+      </c>
+      <c r="E6" s="19">
+        <v>2077</v>
+      </c>
+      <c r="F6" s="19">
+        <v>2077</v>
+      </c>
+      <c r="G6" s="19">
+        <v>2911</v>
+      </c>
+      <c r="H6" s="19">
+        <v>2177</v>
+      </c>
+      <c r="I6" s="19">
+        <v>2272</v>
+      </c>
+      <c r="J6" s="19">
+        <v>2449</v>
+      </c>
+      <c r="K6" s="19">
+        <v>3114</v>
+      </c>
+      <c r="L6" s="19">
+        <v>3142</v>
+      </c>
+      <c r="M6" s="19">
+        <v>3133</v>
+      </c>
+      <c r="N6" s="19">
+        <v>3399</v>
+      </c>
+      <c r="O6" s="19">
+        <v>3273</v>
+      </c>
+      <c r="P6" s="17">
+        <f>+P5-P7</f>
+        <v>4023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="21">
+        <f t="shared" ref="C7:D7" si="0">C5-C6</f>
+        <v>5937</v>
+      </c>
+      <c r="D7" s="21">
+        <f t="shared" si="0"/>
+        <v>6305</v>
+      </c>
+      <c r="E7" s="21">
+        <f t="shared" ref="E7:M7" si="1">E5-E6</f>
+        <v>6387</v>
+      </c>
+      <c r="F7" s="21">
+        <f t="shared" si="1"/>
+        <v>6853</v>
+      </c>
+      <c r="G7" s="21">
+        <f t="shared" si="1"/>
+        <v>6004</v>
+      </c>
+      <c r="H7" s="21">
+        <f t="shared" si="1"/>
+        <v>6556</v>
+      </c>
+      <c r="I7" s="21">
+        <f t="shared" si="1"/>
+        <v>6604</v>
+      </c>
+      <c r="J7" s="21">
+        <f t="shared" si="1"/>
+        <v>6846</v>
+      </c>
+      <c r="K7" s="21">
+        <f t="shared" si="1"/>
+        <v>8847</v>
+      </c>
+      <c r="L7" s="21">
+        <f t="shared" si="1"/>
+        <v>9345</v>
+      </c>
+      <c r="M7" s="21">
+        <f t="shared" si="1"/>
+        <v>9939</v>
+      </c>
+      <c r="N7" s="21">
+        <f t="shared" ref="N7:O7" si="2">N5-N6</f>
+        <v>10655</v>
+      </c>
+      <c r="O7" s="21">
+        <f t="shared" si="2"/>
+        <v>11643</v>
+      </c>
+      <c r="P7" s="20">
+        <f>+P5*0.73</f>
+        <v>10877</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B8" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="19">
+        <v>1206</v>
+      </c>
+      <c r="D8" s="19">
+        <v>1261</v>
+      </c>
+      <c r="E8" s="19">
+        <v>1255</v>
+      </c>
+      <c r="F8" s="19">
+        <v>1255</v>
+      </c>
+      <c r="G8" s="19">
+        <v>1195</v>
+      </c>
+      <c r="H8" s="19">
+        <v>1312</v>
+      </c>
+      <c r="I8" s="19">
+        <v>1358</v>
+      </c>
+      <c r="J8" s="19">
+        <v>1388</v>
+      </c>
+      <c r="K8" s="19">
+        <v>2308</v>
+      </c>
+      <c r="L8" s="19">
+        <v>2415</v>
+      </c>
+      <c r="M8" s="19">
+        <v>2353</v>
+      </c>
+      <c r="N8" s="19">
+        <v>2234</v>
+      </c>
+      <c r="O8" s="19">
+        <v>2253</v>
+      </c>
+      <c r="P8" s="19">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B9" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="19">
+        <v>321</v>
+      </c>
+      <c r="D9" s="19">
+        <v>368</v>
+      </c>
+      <c r="E9" s="19">
+        <v>323</v>
+      </c>
+      <c r="F9" s="19">
+        <v>323</v>
+      </c>
+      <c r="G9" s="19">
+        <v>348</v>
+      </c>
+      <c r="H9" s="19">
+        <v>438</v>
+      </c>
+      <c r="I9" s="19">
+        <v>388</v>
+      </c>
+      <c r="J9" s="19">
+        <v>418</v>
+      </c>
+      <c r="K9" s="19">
+        <v>1572</v>
+      </c>
+      <c r="L9" s="19">
+        <v>1277</v>
+      </c>
+      <c r="M9" s="19">
+        <v>1100</v>
+      </c>
+      <c r="N9" s="19">
+        <v>1010</v>
+      </c>
+      <c r="O9" s="19">
+        <v>949</v>
+      </c>
+      <c r="P9" s="17">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B10" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="19">
+        <v>397</v>
+      </c>
+      <c r="D10" s="19">
+        <v>398</v>
+      </c>
+      <c r="E10" s="19">
+        <v>359</v>
+      </c>
+      <c r="F10" s="19">
+        <v>359</v>
+      </c>
+      <c r="G10" s="19">
+        <v>348</v>
+      </c>
+      <c r="H10" s="19">
+        <v>348</v>
+      </c>
+      <c r="I10" s="19">
+        <v>350</v>
+      </c>
+      <c r="J10" s="19">
+        <v>348</v>
+      </c>
+      <c r="K10" s="19">
+        <v>792</v>
+      </c>
+      <c r="L10" s="19">
+        <v>827</v>
+      </c>
+      <c r="M10" s="19">
+        <v>812</v>
+      </c>
+      <c r="N10" s="19">
+        <v>813</v>
+      </c>
+      <c r="O10" s="19">
+        <v>511</v>
+      </c>
+      <c r="P10" s="17">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B11" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="19">
+        <v>17</v>
+      </c>
+      <c r="D11" s="19">
+        <v>18</v>
+      </c>
+      <c r="E11" s="19">
+        <v>7</v>
+      </c>
+      <c r="F11" s="19">
+        <v>7</v>
+      </c>
+      <c r="G11" s="19">
+        <v>10</v>
+      </c>
+      <c r="H11" s="19">
+        <v>9</v>
+      </c>
+      <c r="I11" s="19">
+        <v>212</v>
+      </c>
+      <c r="J11" s="19">
+        <v>13</v>
+      </c>
+      <c r="K11" s="19">
+        <v>620</v>
+      </c>
+      <c r="L11" s="19">
+        <v>292</v>
+      </c>
+      <c r="M11" s="19">
+        <v>303</v>
+      </c>
+      <c r="N11" s="19">
+        <v>318</v>
+      </c>
+      <c r="O11" s="19">
+        <v>172</v>
+      </c>
+      <c r="P11" s="19">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B12" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="19">
+        <f t="shared" ref="C12:D12" si="3">SUM(C8:C11)</f>
+        <v>1941</v>
+      </c>
+      <c r="D12" s="19">
+        <f t="shared" si="3"/>
+        <v>2045</v>
+      </c>
+      <c r="E12" s="19">
+        <f t="shared" ref="E12:M12" si="4">SUM(E8:E11)</f>
+        <v>1944</v>
+      </c>
+      <c r="F12" s="19">
+        <f t="shared" si="4"/>
+        <v>1944</v>
+      </c>
+      <c r="G12" s="19">
+        <f t="shared" si="4"/>
+        <v>1901</v>
+      </c>
+      <c r="H12" s="19">
+        <f t="shared" si="4"/>
+        <v>2107</v>
+      </c>
+      <c r="I12" s="19">
+        <f t="shared" si="4"/>
+        <v>2308</v>
+      </c>
+      <c r="J12" s="19">
+        <f t="shared" si="4"/>
+        <v>2167</v>
+      </c>
+      <c r="K12" s="19">
+        <f t="shared" si="4"/>
+        <v>5292</v>
+      </c>
+      <c r="L12" s="19">
+        <f t="shared" si="4"/>
+        <v>4811</v>
+      </c>
+      <c r="M12" s="19">
+        <f t="shared" si="4"/>
+        <v>4568</v>
+      </c>
+      <c r="N12" s="19">
+        <f t="shared" ref="N12:P12" si="5">SUM(N8:N11)</f>
+        <v>4375</v>
+      </c>
+      <c r="O12" s="19">
+        <f t="shared" si="5"/>
+        <v>3885</v>
+      </c>
+      <c r="P12" s="19">
+        <f t="shared" si="5"/>
+        <v>4271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="21">
+        <f t="shared" ref="C13:D13" si="6">C7-C12</f>
+        <v>3996</v>
+      </c>
+      <c r="D13" s="21">
+        <f t="shared" si="6"/>
+        <v>4260</v>
+      </c>
+      <c r="E13" s="21">
+        <f t="shared" ref="E13:M13" si="7">E7-E12</f>
+        <v>4443</v>
+      </c>
+      <c r="F13" s="21">
+        <f t="shared" si="7"/>
+        <v>4909</v>
+      </c>
+      <c r="G13" s="21">
+        <f t="shared" si="7"/>
+        <v>4103</v>
+      </c>
+      <c r="H13" s="21">
+        <f t="shared" si="7"/>
+        <v>4449</v>
+      </c>
+      <c r="I13" s="21">
+        <f t="shared" si="7"/>
+        <v>4296</v>
+      </c>
+      <c r="J13" s="21">
+        <f t="shared" si="7"/>
+        <v>4679</v>
+      </c>
+      <c r="K13" s="21">
+        <f t="shared" si="7"/>
+        <v>3555</v>
+      </c>
+      <c r="L13" s="21">
+        <f t="shared" si="7"/>
+        <v>4534</v>
+      </c>
+      <c r="M13" s="21">
+        <f t="shared" si="7"/>
+        <v>5371</v>
+      </c>
+      <c r="N13" s="21">
+        <f t="shared" ref="N13:O13" si="8">N7-N12</f>
+        <v>6280</v>
+      </c>
+      <c r="O13" s="21">
+        <f t="shared" si="8"/>
+        <v>7758</v>
+      </c>
+      <c r="P13" s="20">
+        <f>+P5*0.66</f>
+        <v>9834</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B14" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="19">
+        <v>407</v>
+      </c>
+      <c r="D14" s="19">
+        <v>518</v>
+      </c>
+      <c r="E14" s="19">
+        <v>406</v>
+      </c>
+      <c r="F14" s="19">
+        <v>406</v>
+      </c>
+      <c r="G14" s="19">
+        <v>406</v>
+      </c>
+      <c r="H14" s="19">
+        <v>405</v>
+      </c>
+      <c r="I14" s="19">
+        <v>406</v>
+      </c>
+      <c r="J14" s="19">
+        <v>405</v>
+      </c>
+      <c r="K14" s="19">
+        <v>926</v>
+      </c>
+      <c r="L14" s="19">
+        <v>1047</v>
+      </c>
+      <c r="M14" s="19">
+        <v>1064</v>
+      </c>
+      <c r="N14" s="19">
+        <v>916</v>
+      </c>
+      <c r="O14" s="19">
+        <v>873</v>
+      </c>
+      <c r="P14" s="17">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B15" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="19">
+        <v>14</v>
+      </c>
+      <c r="D15" s="19">
+        <v>86</v>
+      </c>
+      <c r="E15" s="19">
+        <v>6</v>
+      </c>
+      <c r="F15" s="19">
+        <v>6</v>
+      </c>
+      <c r="G15" s="19">
+        <v>143</v>
+      </c>
+      <c r="H15" s="19">
+        <v>113</v>
+      </c>
+      <c r="I15" s="19">
+        <v>124</v>
+      </c>
+      <c r="J15" s="19">
+        <v>132</v>
+      </c>
+      <c r="K15" s="19">
+        <v>185</v>
+      </c>
+      <c r="L15" s="19">
+        <v>87</v>
+      </c>
+      <c r="M15" s="19">
+        <v>82</v>
+      </c>
+      <c r="N15" s="19">
+        <v>52</v>
+      </c>
+      <c r="O15" s="19">
+        <v>103</v>
+      </c>
+      <c r="P15" s="17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B16" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="20">
-        <v>2077</v>
-      </c>
-      <c r="F6" s="20">
-        <v>2077</v>
-      </c>
-      <c r="G6" s="20">
-        <v>2911</v>
-      </c>
-      <c r="H6" s="20">
-        <v>2177</v>
-      </c>
-      <c r="I6" s="20">
-        <v>2272</v>
-      </c>
-      <c r="J6" s="20">
-        <v>2449</v>
-      </c>
-      <c r="K6" s="20">
-        <v>3114</v>
-      </c>
-      <c r="L6" s="20">
-        <v>3142</v>
-      </c>
-      <c r="M6" s="20">
-        <v>3133</v>
-      </c>
-      <c r="N6" s="20">
-        <v>3399</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="22">
-        <f t="shared" ref="E7:M7" si="0">E5-E6</f>
-        <v>6387</v>
-      </c>
-      <c r="F7" s="22">
-        <f t="shared" si="0"/>
-        <v>6853</v>
-      </c>
-      <c r="G7" s="22">
-        <f t="shared" si="0"/>
-        <v>6004</v>
-      </c>
-      <c r="H7" s="22">
-        <f t="shared" si="0"/>
-        <v>6556</v>
-      </c>
-      <c r="I7" s="22">
-        <f t="shared" si="0"/>
-        <v>6604</v>
-      </c>
-      <c r="J7" s="22">
-        <f t="shared" si="0"/>
-        <v>6846</v>
-      </c>
-      <c r="K7" s="22">
-        <f t="shared" si="0"/>
-        <v>8847</v>
-      </c>
-      <c r="L7" s="22">
-        <f t="shared" si="0"/>
-        <v>9345</v>
-      </c>
-      <c r="M7" s="22">
-        <f t="shared" si="0"/>
-        <v>9939</v>
-      </c>
-      <c r="N7" s="22">
-        <f t="shared" ref="N7" si="1">N5-N6</f>
-        <v>10655</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B8" s="18" t="s">
+      <c r="C16" s="19">
+        <v>215</v>
+      </c>
+      <c r="D16" s="19">
+        <v>200</v>
+      </c>
+      <c r="E16" s="19">
+        <v>263</v>
+      </c>
+      <c r="F16" s="19">
+        <v>263</v>
+      </c>
+      <c r="G16" s="19">
+        <v>66</v>
+      </c>
+      <c r="H16" s="19">
+        <v>235</v>
+      </c>
+      <c r="I16" s="19">
+        <v>271</v>
+      </c>
+      <c r="J16" s="19">
+        <v>443</v>
+      </c>
+      <c r="K16" s="19">
+        <v>68</v>
+      </c>
+      <c r="L16" s="19">
+        <v>-116</v>
+      </c>
+      <c r="M16" s="19">
+        <v>4238</v>
+      </c>
+      <c r="N16" s="19">
+        <v>-442</v>
+      </c>
+      <c r="O16" s="19">
+        <v>-13</v>
+      </c>
+      <c r="P16" s="19">
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="20">
-        <v>1255</v>
-      </c>
-      <c r="F8" s="20">
-        <v>1255</v>
-      </c>
-      <c r="G8" s="20">
-        <v>1195</v>
-      </c>
-      <c r="H8" s="20">
-        <v>1312</v>
-      </c>
-      <c r="I8" s="20">
-        <v>1358</v>
-      </c>
-      <c r="J8" s="20">
-        <v>1388</v>
-      </c>
-      <c r="K8" s="20">
-        <v>2308</v>
-      </c>
-      <c r="L8" s="20">
-        <v>2415</v>
-      </c>
-      <c r="M8" s="20">
-        <v>2353</v>
-      </c>
-      <c r="N8" s="20">
-        <v>2234</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B9" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="20">
-        <v>323</v>
-      </c>
-      <c r="F9" s="20">
-        <v>323</v>
-      </c>
-      <c r="G9" s="20">
-        <v>348</v>
-      </c>
-      <c r="H9" s="20">
-        <v>438</v>
-      </c>
-      <c r="I9" s="20">
-        <v>388</v>
-      </c>
-      <c r="J9" s="20">
-        <v>418</v>
-      </c>
-      <c r="K9" s="20">
-        <v>1572</v>
-      </c>
-      <c r="L9" s="20">
-        <v>1277</v>
-      </c>
-      <c r="M9" s="20">
-        <v>1100</v>
-      </c>
-      <c r="N9" s="20">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B10" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="20">
-        <v>359</v>
-      </c>
-      <c r="F10" s="20">
-        <v>359</v>
-      </c>
-      <c r="G10" s="20">
-        <v>348</v>
-      </c>
-      <c r="H10" s="20">
-        <v>348</v>
-      </c>
-      <c r="I10" s="20">
-        <v>350</v>
-      </c>
-      <c r="J10" s="20">
-        <v>348</v>
-      </c>
-      <c r="K10" s="20">
-        <v>792</v>
-      </c>
-      <c r="L10" s="20">
-        <v>827</v>
-      </c>
-      <c r="M10" s="20">
-        <v>812</v>
-      </c>
-      <c r="N10" s="20">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B11" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="20">
-        <v>7</v>
-      </c>
-      <c r="F11" s="20">
-        <v>7</v>
-      </c>
-      <c r="G11" s="20">
-        <v>10</v>
-      </c>
-      <c r="H11" s="20">
-        <v>9</v>
-      </c>
-      <c r="I11" s="20">
-        <v>212</v>
-      </c>
-      <c r="J11" s="20">
-        <v>13</v>
-      </c>
-      <c r="K11" s="20">
-        <v>620</v>
-      </c>
-      <c r="L11" s="20">
-        <v>292</v>
-      </c>
-      <c r="M11" s="20">
-        <v>303</v>
-      </c>
-      <c r="N11" s="20">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B12" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="20">
-        <f t="shared" ref="E12:M12" si="2">SUM(E8:E11)</f>
-        <v>1944</v>
-      </c>
-      <c r="F12" s="20">
-        <f t="shared" si="2"/>
-        <v>1944</v>
-      </c>
-      <c r="G12" s="20">
-        <f t="shared" si="2"/>
-        <v>1901</v>
-      </c>
-      <c r="H12" s="20">
-        <f t="shared" si="2"/>
-        <v>2107</v>
-      </c>
-      <c r="I12" s="20">
-        <f t="shared" si="2"/>
-        <v>2308</v>
-      </c>
-      <c r="J12" s="20">
-        <f t="shared" si="2"/>
-        <v>2167</v>
-      </c>
-      <c r="K12" s="20">
-        <f t="shared" si="2"/>
-        <v>5292</v>
-      </c>
-      <c r="L12" s="20">
-        <f t="shared" si="2"/>
-        <v>4811</v>
-      </c>
-      <c r="M12" s="20">
-        <f t="shared" si="2"/>
-        <v>4568</v>
-      </c>
-      <c r="N12" s="20">
-        <f t="shared" ref="N12" si="3">SUM(N8:N11)</f>
-        <v>4375</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="22">
-        <f t="shared" ref="E13:M13" si="4">E7-E12</f>
-        <v>4443</v>
-      </c>
-      <c r="F13" s="22">
-        <f t="shared" si="4"/>
-        <v>4909</v>
-      </c>
-      <c r="G13" s="22">
-        <f t="shared" si="4"/>
-        <v>4103</v>
-      </c>
-      <c r="H13" s="22">
-        <f t="shared" si="4"/>
-        <v>4449</v>
-      </c>
-      <c r="I13" s="22">
-        <f t="shared" si="4"/>
-        <v>4296</v>
-      </c>
-      <c r="J13" s="22">
-        <f t="shared" si="4"/>
-        <v>4679</v>
-      </c>
-      <c r="K13" s="22">
-        <f t="shared" si="4"/>
-        <v>3555</v>
-      </c>
-      <c r="L13" s="22">
-        <f t="shared" si="4"/>
-        <v>4534</v>
-      </c>
-      <c r="M13" s="22">
-        <f t="shared" si="4"/>
-        <v>5371</v>
-      </c>
-      <c r="N13" s="22">
-        <f t="shared" ref="N13" si="5">N7-N12</f>
-        <v>6280</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B14" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="20">
-        <v>406</v>
-      </c>
-      <c r="F14" s="20">
-        <v>406</v>
-      </c>
-      <c r="G14" s="20">
-        <v>406</v>
-      </c>
-      <c r="H14" s="20">
-        <v>405</v>
-      </c>
-      <c r="I14" s="20">
-        <v>406</v>
-      </c>
-      <c r="J14" s="20">
-        <v>405</v>
-      </c>
-      <c r="K14" s="20">
-        <v>926</v>
-      </c>
-      <c r="L14" s="20">
-        <v>1047</v>
-      </c>
-      <c r="M14" s="20">
-        <v>1064</v>
-      </c>
-      <c r="N14" s="20">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B15" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="20">
-        <v>6</v>
-      </c>
-      <c r="F15" s="20">
-        <v>6</v>
-      </c>
-      <c r="G15" s="20">
-        <v>143</v>
-      </c>
-      <c r="H15" s="20">
-        <v>113</v>
-      </c>
-      <c r="I15" s="20">
-        <v>124</v>
-      </c>
-      <c r="J15" s="20">
-        <v>132</v>
-      </c>
-      <c r="K15" s="20">
-        <v>185</v>
-      </c>
-      <c r="L15" s="20">
-        <v>87</v>
-      </c>
-      <c r="M15" s="20">
-        <v>82</v>
-      </c>
-      <c r="N15" s="20">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B16" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="20">
-        <v>263</v>
-      </c>
-      <c r="F16" s="20">
-        <v>263</v>
-      </c>
-      <c r="G16" s="20">
-        <v>66</v>
-      </c>
-      <c r="H16" s="20">
-        <v>235</v>
-      </c>
-      <c r="I16" s="20">
-        <v>271</v>
-      </c>
-      <c r="J16" s="20">
-        <v>443</v>
-      </c>
-      <c r="K16" s="20">
-        <v>68</v>
-      </c>
-      <c r="L16" s="20">
-        <v>-116</v>
-      </c>
-      <c r="M16" s="20">
-        <v>4238</v>
-      </c>
-      <c r="N16" s="20">
-        <v>-442</v>
-      </c>
-    </row>
-    <row r="17" spans="2:20" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="22">
+      <c r="C17" s="21">
+        <f>C13-C14+C15+C16</f>
+        <v>3818</v>
+      </c>
+      <c r="D17" s="21">
+        <f>D13-D14+D15+D16</f>
+        <v>4028</v>
+      </c>
+      <c r="E17" s="21">
         <f>E13-E14+E15+E16</f>
         <v>4306</v>
       </c>
-      <c r="F17" s="22">
-        <f t="shared" ref="F17:M17" si="6">F13-F14+F15-F16</f>
+      <c r="F17" s="21">
+        <f t="shared" ref="F17:M17" si="9">F13-F14+F15-F16</f>
         <v>4246</v>
       </c>
-      <c r="G17" s="22">
-        <f t="shared" si="6"/>
+      <c r="G17" s="21">
+        <f t="shared" si="9"/>
         <v>3774</v>
       </c>
-      <c r="H17" s="22">
-        <f t="shared" si="6"/>
+      <c r="H17" s="21">
+        <f t="shared" si="9"/>
         <v>3922</v>
       </c>
-      <c r="I17" s="22">
-        <f t="shared" si="6"/>
+      <c r="I17" s="21">
+        <f t="shared" si="9"/>
         <v>3743</v>
       </c>
-      <c r="J17" s="22">
-        <f t="shared" si="6"/>
+      <c r="J17" s="21">
+        <f t="shared" si="9"/>
         <v>3963</v>
       </c>
-      <c r="K17" s="22">
-        <f t="shared" si="6"/>
+      <c r="K17" s="21">
+        <f t="shared" si="9"/>
         <v>2746</v>
       </c>
-      <c r="L17" s="22">
-        <f t="shared" si="6"/>
+      <c r="L17" s="21">
+        <f t="shared" si="9"/>
         <v>3690</v>
       </c>
-      <c r="M17" s="22">
-        <f t="shared" si="6"/>
+      <c r="M17" s="21">
+        <f t="shared" si="9"/>
         <v>151</v>
       </c>
-      <c r="N17" s="22">
-        <f t="shared" ref="N17" si="7">N13-N14+N15-N16</f>
+      <c r="N17" s="21">
+        <f t="shared" ref="N17:O17" si="10">N13-N14+N15-N16</f>
         <v>5858</v>
       </c>
-      <c r="T17" s="22">
+      <c r="O17" s="21">
+        <f t="shared" si="10"/>
+        <v>7001</v>
+      </c>
+      <c r="P17" s="21">
+        <f t="shared" ref="P17" si="11">P13-P14+P15-P16</f>
+        <v>8942</v>
+      </c>
+      <c r="T17" s="21">
         <f>+SUM(K17:N17)</f>
         <v>12445</v>
       </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B18" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="23">
-        <f t="shared" ref="E18:M18" si="8">E17/E19</f>
+      <c r="B18" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="22">
+        <f t="shared" ref="C18:D18" si="12">C17/C19</f>
+        <v>0.88997668997668999</v>
+      </c>
+      <c r="D18" s="22">
+        <f t="shared" si="12"/>
+        <v>0.95</v>
+      </c>
+      <c r="E18" s="22">
+        <f t="shared" ref="E18:M18" si="13">E17/E19</f>
         <v>1.0013953488372094</v>
       </c>
-      <c r="F18" s="23">
-        <f t="shared" si="8"/>
+      <c r="F18" s="22">
+        <f t="shared" si="13"/>
         <v>0.98974358974358978</v>
       </c>
-      <c r="G18" s="23">
-        <f t="shared" si="8"/>
+      <c r="G18" s="22">
+        <f t="shared" si="13"/>
         <v>0.87972027972027977</v>
       </c>
-      <c r="H18" s="23">
-        <f t="shared" si="8"/>
+      <c r="H18" s="22">
+        <f t="shared" si="13"/>
         <v>0.91850117096018735</v>
       </c>
-      <c r="I18" s="23">
-        <f t="shared" si="8"/>
+      <c r="I18" s="22">
+        <f t="shared" si="13"/>
         <v>0.90629539951573845</v>
       </c>
-      <c r="J18" s="23">
-        <f t="shared" si="8"/>
+      <c r="J18" s="22">
+        <f t="shared" si="13"/>
         <v>0.92810304449648717</v>
       </c>
-      <c r="K18" s="23">
-        <f t="shared" si="8"/>
+      <c r="K18" s="22">
+        <f t="shared" si="13"/>
         <v>0.58889127171348921</v>
       </c>
-      <c r="L18" s="23">
-        <f t="shared" si="8"/>
+      <c r="L18" s="22">
+        <f t="shared" si="13"/>
         <v>0.76891018962283808</v>
       </c>
-      <c r="M18" s="23">
-        <f t="shared" si="8"/>
+      <c r="M18" s="22">
+        <f t="shared" si="13"/>
         <v>3.2382586317821142E-2</v>
       </c>
-      <c r="N18" s="23">
-        <f t="shared" ref="N18" si="9">N17/N19</f>
+      <c r="N18" s="22">
+        <f t="shared" ref="N18:O18" si="14">N17/N19</f>
         <v>1.2133388566694283</v>
       </c>
-      <c r="T18" s="23">
+      <c r="O18" s="22">
+        <f t="shared" si="14"/>
+        <v>1.4476840363937138</v>
+      </c>
+      <c r="P18" s="22">
+        <f t="shared" ref="P18" si="15">P17/P19</f>
+        <v>1.8490488006617039</v>
+      </c>
+      <c r="T18" s="22">
         <f>+T17/T19</f>
         <v>2.5776719138359567</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="20">
+      <c r="C19" s="19">
+        <v>4290</v>
+      </c>
+      <c r="D19" s="19">
+        <v>4240</v>
+      </c>
+      <c r="E19" s="19">
         <f>430*10</f>
         <v>4300</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19" s="19">
         <f>429*10</f>
         <v>4290</v>
       </c>
-      <c r="G19" s="20">
+      <c r="G19" s="19">
         <f>429*10</f>
         <v>4290</v>
       </c>
-      <c r="H19" s="20">
+      <c r="H19" s="19">
         <f>427*10</f>
         <v>4270</v>
       </c>
-      <c r="I19" s="20">
+      <c r="I19" s="19">
         <v>4130</v>
       </c>
-      <c r="J19" s="20">
+      <c r="J19" s="19">
         <f>427*10</f>
         <v>4270</v>
       </c>
-      <c r="K19" s="20">
+      <c r="K19" s="19">
         <v>4663</v>
       </c>
-      <c r="L19" s="20">
+      <c r="L19" s="19">
         <v>4799</v>
       </c>
-      <c r="M19" s="20">
+      <c r="M19" s="19">
         <v>4663</v>
       </c>
-      <c r="N19" s="20">
+      <c r="N19" s="19">
         <v>4828</v>
       </c>
-      <c r="T19" s="18">
+      <c r="O19" s="19">
+        <v>4836</v>
+      </c>
+      <c r="P19" s="19">
+        <v>4836</v>
+      </c>
+      <c r="T19" s="17">
         <v>4828</v>
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B20" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="20">
+      <c r="B20" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="19">
         <v>75</v>
       </c>
-      <c r="J20" s="23">
+      <c r="D20" s="19">
+        <v>75</v>
+      </c>
+      <c r="E20" s="19">
+        <v>75</v>
+      </c>
+      <c r="J20" s="22">
         <v>5.25</v>
       </c>
-      <c r="K20" s="23">
+      <c r="K20" s="22">
         <v>5.25</v>
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B22" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="I22" s="20">
+      <c r="B22" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="I22" s="19">
         <f>I36+I41</f>
         <v>4597</v>
       </c>
-      <c r="K22" s="20">
+      <c r="K22" s="19">
         <f>K36+K41</f>
         <v>4693</v>
       </c>
-      <c r="L22" s="20">
+      <c r="L22" s="19">
         <f>L36+L41</f>
         <v>4448</v>
       </c>
-      <c r="M22" s="20">
+      <c r="M22" s="19">
         <f>M36+M41</f>
         <v>4791</v>
       </c>
+      <c r="N22" s="19">
+        <v>5482</v>
+      </c>
+      <c r="O22" s="19">
+        <f>O36+O41</f>
+        <v>5972</v>
+      </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B23" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="I23" s="24">
+      <c r="B23" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="I23" s="23">
         <f>I5/E5-1</f>
         <v>4.8676748582230589E-2</v>
       </c>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24">
+      <c r="J23" s="23"/>
+      <c r="K23" s="23">
         <f>K5/G5-1</f>
         <v>0.34167134043746494</v>
       </c>
-      <c r="L23" s="24">
+      <c r="L23" s="23">
         <f>L5/H5-1</f>
         <v>0.42986373525707089</v>
       </c>
-      <c r="M23" s="24">
+      <c r="M23" s="23">
         <f>M5/I5-1</f>
         <v>0.47273546642631814</v>
       </c>
+      <c r="N23" s="23">
+        <f>N5/J5-1</f>
+        <v>0.51199569661108124</v>
+      </c>
+      <c r="O23" s="23">
+        <f>O5/K5-1</f>
+        <v>0.24705292199648854</v>
+      </c>
+      <c r="P23" s="23">
+        <f>P5/L5-1</f>
+        <v>0.19324097060943379</v>
+      </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B24" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="E24" s="24">
-        <f t="shared" ref="E24:M24" si="10">E7/E5</f>
+      <c r="B24" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="23">
+        <f t="shared" ref="E24:M24" si="16">E7/E5</f>
         <v>0.75460775047258977</v>
       </c>
-      <c r="F24" s="24">
-        <f t="shared" si="10"/>
+      <c r="F24" s="23">
+        <f t="shared" si="16"/>
         <v>0.76741321388577832</v>
       </c>
-      <c r="G24" s="24">
-        <f t="shared" si="10"/>
+      <c r="G24" s="23">
+        <f t="shared" si="16"/>
         <v>0.67347167694896237</v>
       </c>
-      <c r="H24" s="24">
-        <f t="shared" si="10"/>
+      <c r="H24" s="23">
+        <f t="shared" si="16"/>
         <v>0.75071567617084622</v>
       </c>
-      <c r="I24" s="24">
-        <f t="shared" si="10"/>
+      <c r="I24" s="23">
+        <f t="shared" si="16"/>
         <v>0.74402884182063989</v>
       </c>
-      <c r="J24" s="24">
-        <f t="shared" si="10"/>
+      <c r="J24" s="23">
+        <f t="shared" si="16"/>
         <v>0.7365250134480904</v>
       </c>
-      <c r="K24" s="24">
-        <f t="shared" si="10"/>
+      <c r="K24" s="23">
+        <f t="shared" si="16"/>
         <v>0.73965387509405567</v>
       </c>
-      <c r="L24" s="24">
-        <f t="shared" si="10"/>
+      <c r="L24" s="23">
+        <f t="shared" si="16"/>
         <v>0.74837831344598382</v>
       </c>
-      <c r="M24" s="24">
-        <f t="shared" si="10"/>
+      <c r="M24" s="23">
+        <f t="shared" si="16"/>
         <v>0.76032741738066101</v>
       </c>
+      <c r="N24" s="23">
+        <f t="shared" ref="N24" si="17">N7/N5</f>
+        <v>0.75814714671979511</v>
+      </c>
+      <c r="O24" s="23">
+        <f t="shared" ref="O24:P24" si="18">O7/O5</f>
+        <v>0.78057119871279168</v>
+      </c>
+      <c r="P24" s="23">
+        <f t="shared" si="18"/>
+        <v>0.73</v>
+      </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B25" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="E25" s="24">
-        <f t="shared" ref="E25:M25" si="11">E13/E5</f>
+      <c r="B25" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="23">
+        <f t="shared" ref="E25:M25" si="19">E13/E5</f>
         <v>0.52492911153119093</v>
       </c>
-      <c r="F25" s="24">
-        <f t="shared" si="11"/>
+      <c r="F25" s="23">
+        <f t="shared" si="19"/>
         <v>0.5497200447928331</v>
       </c>
-      <c r="G25" s="24">
-        <f t="shared" si="11"/>
+      <c r="G25" s="23">
+        <f t="shared" si="19"/>
         <v>0.4602355580482333</v>
       </c>
-      <c r="H25" s="24">
-        <f t="shared" si="11"/>
+      <c r="H25" s="23">
+        <f t="shared" si="19"/>
         <v>0.50944692545517001</v>
       </c>
-      <c r="I25" s="24">
-        <f t="shared" si="11"/>
+      <c r="I25" s="23">
+        <f t="shared" si="19"/>
         <v>0.48400180261379</v>
       </c>
-      <c r="J25" s="24">
-        <f t="shared" si="11"/>
+      <c r="J25" s="23">
+        <f t="shared" si="19"/>
         <v>0.5033889187735342</v>
       </c>
-      <c r="K25" s="24">
-        <f t="shared" si="11"/>
+      <c r="K25" s="23">
+        <f t="shared" si="19"/>
         <v>0.29721595184349137</v>
       </c>
-      <c r="L25" s="24">
-        <f t="shared" si="11"/>
+      <c r="L25" s="23">
+        <f t="shared" si="19"/>
         <v>0.36309762152638747</v>
       </c>
-      <c r="M25" s="24">
-        <f t="shared" si="11"/>
+      <c r="M25" s="23">
+        <f t="shared" si="19"/>
         <v>0.41087821297429622</v>
       </c>
+      <c r="N25" s="23">
+        <f t="shared" ref="N25" si="20">N13/N5</f>
+        <v>0.44684787249181729</v>
+      </c>
+      <c r="O25" s="23">
+        <f t="shared" ref="O25:P25" si="21">O13/O5</f>
+        <v>0.52011263073209979</v>
+      </c>
+      <c r="P25" s="23">
+        <f t="shared" si="21"/>
+        <v>0.66</v>
+      </c>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B27" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="I27" s="20">
+      <c r="B27" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="I27" s="19">
         <v>3303</v>
       </c>
-      <c r="K27" s="20">
+      <c r="K27" s="19">
         <v>1274</v>
       </c>
-      <c r="L27" s="20">
+      <c r="L27" s="19">
         <v>2121</v>
       </c>
-      <c r="M27" s="20">
+      <c r="M27" s="19">
         <v>-2349</v>
       </c>
+      <c r="O27" s="19">
+        <v>7001</v>
+      </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B28" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="I28" s="20">
+      <c r="B28" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="I28" s="19">
         <v>3303</v>
       </c>
-      <c r="K28" s="20">
+      <c r="K28" s="19">
         <v>1325</v>
       </c>
-      <c r="L28" s="20">
+      <c r="L28" s="19">
         <v>2121</v>
       </c>
-      <c r="M28" s="20">
+      <c r="M28" s="19">
         <v>-1875</v>
       </c>
+      <c r="O28" s="19">
+        <v>5503</v>
+      </c>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B29" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="I29" s="20">
+      <c r="B29" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="I29" s="19">
         <v>810</v>
       </c>
-      <c r="K29" s="20">
+      <c r="K29" s="19">
         <v>2206</v>
       </c>
-      <c r="L29" s="20">
+      <c r="L29" s="19">
         <v>2381</v>
       </c>
-      <c r="M29" s="20">
+      <c r="M29" s="19">
         <v>2375</v>
       </c>
+      <c r="O29" s="19">
+        <v>2032</v>
+      </c>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B30" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="I30" s="20">
+      <c r="B30" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="I30" s="19">
         <v>122</v>
       </c>
-      <c r="K30" s="20">
+      <c r="K30" s="19">
         <v>139</v>
       </c>
-      <c r="L30" s="20">
+      <c r="L30" s="19">
         <v>149</v>
       </c>
-      <c r="M30" s="20">
+      <c r="M30" s="19">
         <v>149</v>
       </c>
+      <c r="O30" s="19">
+        <v>142</v>
+      </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B31" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="I31" s="20">
+      <c r="B31" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="I31" s="19">
         <v>629</v>
       </c>
-      <c r="K31" s="20">
+      <c r="K31" s="19">
         <v>1582</v>
       </c>
-      <c r="L31" s="20">
+      <c r="L31" s="19">
         <v>1457</v>
       </c>
-      <c r="M31" s="20">
+      <c r="M31" s="19">
         <v>1388</v>
       </c>
+      <c r="O31" s="19">
+        <v>1280</v>
+      </c>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B32" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="I32" s="20">
+      <c r="B32" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="I32" s="19">
         <v>-251</v>
       </c>
-      <c r="K32" s="20">
+      <c r="K32" s="19">
         <v>-294</v>
       </c>
-      <c r="L32" s="20">
+      <c r="L32" s="19">
         <v>-511</v>
       </c>
-      <c r="M32" s="20">
+      <c r="M32" s="19">
         <v>3638</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B33" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="I33" s="20">
+      <c r="O32" s="19">
+        <v>-696</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B33" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="I33" s="19">
         <v>0</v>
       </c>
-      <c r="K33" s="20">
+      <c r="K33" s="19">
         <v>0</v>
       </c>
-      <c r="L33" s="20">
+      <c r="L33" s="19">
         <v>22</v>
       </c>
-      <c r="M33" s="20">
+      <c r="M33" s="19">
         <v>83</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B34" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="I34" s="20">
+      <c r="O33" s="19">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B34" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="I34" s="19">
         <v>33</v>
       </c>
-      <c r="K34" s="20">
+      <c r="K34" s="19">
         <v>102</v>
       </c>
-      <c r="L34" s="20">
+      <c r="L34" s="19">
         <v>119</v>
       </c>
-      <c r="M34" s="20">
+      <c r="M34" s="19">
         <f>115+158</f>
         <v>273</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B35" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="I35" s="20">
+      <c r="O34" s="19">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B35" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="I35" s="19">
         <f>135+44+188+184-339-139</f>
         <v>73</v>
       </c>
-      <c r="K35" s="20">
+      <c r="K35" s="19">
         <f>38+1756-14-74-660-2182+891</f>
         <v>-245</v>
       </c>
-      <c r="L35" s="20">
+      <c r="L35" s="19">
         <f>70-513+82-93+251-386-569</f>
         <v>-1158</v>
       </c>
-      <c r="M35" s="20">
+      <c r="M35" s="19">
         <f>835-52+373+291-1345-1170</f>
         <v>-1068</v>
       </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B36" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="I36" s="20">
+      <c r="O35" s="19">
+        <f>-539-148+241-908+26-1023</f>
+        <v>-2351</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B36" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="I36" s="19">
         <f>SUM(I28:I35)</f>
         <v>4719</v>
       </c>
-      <c r="K36" s="20">
+      <c r="K36" s="19">
         <f>SUM(K28:K35)</f>
         <v>4815</v>
       </c>
-      <c r="L36" s="20">
+      <c r="L36" s="19">
         <f>SUM(L28:L35)</f>
         <v>4580</v>
       </c>
-      <c r="M36" s="20">
+      <c r="M36" s="19">
         <f>SUM(M28:M35)</f>
         <v>4963</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B39" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="I39" s="20">
+      <c r="O36" s="19">
+        <f>SUM(O28:O35)</f>
+        <v>6072</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B39" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="I39" s="19">
         <v>-17</v>
       </c>
-      <c r="K39" s="22">
+      <c r="K39" s="21">
         <v>-25416</v>
       </c>
-      <c r="L39" s="20">
+      <c r="L39" s="19">
         <v>-560</v>
       </c>
-      <c r="M39" s="20">
+      <c r="M39" s="19">
         <v>-2</v>
       </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B40" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="I40" s="20">
+      <c r="O39" s="19">
         <v>0</v>
       </c>
-      <c r="K40" s="20">
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B40" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="I40" s="19">
         <v>0</v>
       </c>
-      <c r="L40" s="20">
+      <c r="K40" s="19">
         <v>0</v>
       </c>
-      <c r="M40" s="20">
+      <c r="L40" s="19">
+        <v>0</v>
+      </c>
+      <c r="M40" s="19">
         <v>3485</v>
       </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B41" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="I41" s="20">
+      <c r="O40" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B41" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="I41" s="19">
         <v>-122</v>
       </c>
-      <c r="K41" s="20">
+      <c r="K41" s="19">
         <v>-122</v>
       </c>
-      <c r="L41" s="20">
+      <c r="L41" s="19">
         <v>-132</v>
       </c>
-      <c r="M41" s="20">
+      <c r="M41" s="19">
         <v>-172</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B42" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="I42" s="20">
+      <c r="O41" s="19">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B42" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="I42" s="19">
         <v>-91</v>
       </c>
-      <c r="K42" s="20">
+      <c r="K42" s="19">
         <v>-13</v>
       </c>
-      <c r="L42" s="20">
+      <c r="L42" s="19">
         <v>-59</v>
       </c>
-      <c r="M42" s="20">
+      <c r="M42" s="19">
         <v>-73</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B43" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="I43" s="20">
+      <c r="O42" s="19">
+        <v>-105</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B43" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="K43" s="20">
+      <c r="I43" s="19">
+        <v>74</v>
+      </c>
+      <c r="K43" s="19">
         <v>89</v>
       </c>
-      <c r="L43" s="20">
+      <c r="L43" s="19">
         <v>42</v>
       </c>
-      <c r="M43" s="20">
+      <c r="M43" s="19">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B44" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="I44" s="20">
+      <c r="O43" s="19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B44" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" s="19">
         <v>12</v>
       </c>
-      <c r="K44" s="20">
+      <c r="K44" s="19">
         <v>-15</v>
       </c>
-      <c r="L44" s="20">
+      <c r="L44" s="19">
         <v>3</v>
       </c>
-      <c r="M44" s="20">
+      <c r="M44" s="19">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B45" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="I45" s="20">
+      <c r="O44" s="19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B45" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="I45" s="19">
         <f>SUM(I39:I44)</f>
         <v>-144</v>
       </c>
-      <c r="K45" s="20">
+      <c r="K45" s="19">
         <f>SUM(K39:K44)</f>
         <v>-25477</v>
       </c>
-      <c r="L45" s="20">
+      <c r="L45" s="19">
         <f>SUM(L39:L44)</f>
         <v>-706</v>
       </c>
-      <c r="M45" s="20">
+      <c r="M45" s="19">
         <f>SUM(M39:M44)</f>
         <v>3245</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="M46" s="20"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B47" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="I47" s="20">
+      <c r="O45" s="19">
+        <f>SUM(O39:O44)</f>
+        <v>-174</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="M46" s="19"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B47" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="I47" s="19">
         <v>0</v>
       </c>
-      <c r="K47" s="20">
+      <c r="K47" s="19">
         <v>30010</v>
       </c>
-      <c r="L47" s="20">
+      <c r="L47" s="19">
         <v>0</v>
       </c>
-      <c r="M47" s="20">
+      <c r="M47" s="19">
         <v>4975</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B48" s="18" t="s">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B48" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="I48" s="20">
+      <c r="I48" s="19">
         <v>0</v>
       </c>
-      <c r="K48" s="20">
+      <c r="K48" s="19">
         <v>-934</v>
       </c>
-      <c r="L48" s="20">
+      <c r="L48" s="19">
         <v>-2000</v>
       </c>
-      <c r="M48" s="20">
+      <c r="M48" s="19">
         <v>-9202</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B49" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="I49" s="20">
+      <c r="B49" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="I49" s="19">
         <v>-1901</v>
       </c>
-      <c r="K49" s="20">
+      <c r="K49" s="19">
         <v>-2435</v>
       </c>
-      <c r="L49" s="20">
+      <c r="L49" s="19">
         <v>-2443</v>
       </c>
-      <c r="M49" s="20">
+      <c r="M49" s="19">
         <v>-2452</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B50" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="I50" s="20">
+      <c r="B50" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="I50" s="19">
         <f>-1707-460</f>
         <v>-2167</v>
       </c>
-      <c r="K50" s="20">
+      <c r="K50" s="19">
         <f>-7176-1114</f>
         <v>-8290</v>
       </c>
-      <c r="L50" s="20">
+      <c r="L50" s="19">
         <v>-1548</v>
       </c>
-      <c r="M50" s="20">
+      <c r="M50" s="19">
         <v>-1350</v>
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B51" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="I51" s="20">
+      <c r="B51" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="I51" s="19">
         <v>0</v>
       </c>
-      <c r="K51" s="20">
+      <c r="K51" s="19">
         <v>0</v>
       </c>
-      <c r="L51" s="20">
+      <c r="L51" s="19">
         <v>64</v>
       </c>
-      <c r="M51" s="20">
+      <c r="M51" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B52" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="I52" s="20">
+      <c r="B52" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" s="19">
         <v>-5</v>
       </c>
-      <c r="K52" s="20">
+      <c r="K52" s="19">
         <v>-14</v>
       </c>
-      <c r="L52" s="20">
+      <c r="L52" s="19">
         <v>-2</v>
       </c>
-      <c r="M52" s="20">
+      <c r="M52" s="19">
         <v>-36</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B53" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="I53" s="20">
+      <c r="B53" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="I53" s="19">
         <f>SUM(I47:I52)</f>
         <v>-4073</v>
       </c>
-      <c r="K53" s="20">
+      <c r="K53" s="19">
         <f>SUM(K47:K52)</f>
         <v>18337</v>
       </c>
-      <c r="L53" s="20">
+      <c r="L53" s="19">
         <f>SUM(L47:L52)</f>
         <v>-5929</v>
       </c>
-      <c r="M53" s="20">
+      <c r="M53" s="19">
         <f>SUM(M47:M52)</f>
         <v>-8065</v>
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B54" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="I54" s="20">
+      <c r="B54" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="I54" s="19">
         <f>I53+I45+I36</f>
         <v>502</v>
       </c>
-      <c r="K54" s="20">
+      <c r="K54" s="19">
         <f>K53+K45+K36</f>
         <v>-2325</v>
       </c>
-      <c r="L54" s="20">
+      <c r="L54" s="19">
         <f>L53+L45+L36</f>
         <v>-2055</v>
       </c>
-      <c r="M54" s="20">
+      <c r="M54" s="19">
         <f>M53+M45+M36</f>
         <v>143</v>
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="M55" s="20"/>
+      <c r="M55" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>
